--- a/biology/Biochimie/Homocystéine/Homocystéine.xlsx
+++ b/biology/Biochimie/Homocystéine/Homocystéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homocyst%C3%A9ine</t>
+          <t>Homocystéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'homocystéine est un acide aminé non protéinogène soufré résultant du catabolisme de la méthionine ou de la cystathionine. Son nom provient de sa structure analogue avec la cystéine, cet autre acide aminé ayant un groupement méthylène –CH2– en moins. La cystéine, par contre, entre dans la fabrication des protéines. L'homocystéine peut être recyclée en méthionine ou convertie en cystéine grâce à l'aide de vitamines de type B.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Homocyst%C3%A9ine</t>
+          <t>Homocystéine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enzyme méthylènetétrahydrofolate réductase permet la destruction de l'homocystéine. Cet enzyme utilise comme cofacteur la vitamine B9 et l'administration de ce dernier permet donc la diminution du taux sanguin d'homocystéine. L'homocystéine'enzyme est codé par le gène MTHFR qui possède plusieurs allèles. La présence de certains types d'allèles augmenterait ainsi le taux d'homocystéine et le risque de maladie cardiovasculaire[2]. Il a été proposé que l'homocystéine a pu jouer un rôle important dans l'apparition de la vie sur terre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enzyme méthylènetétrahydrofolate réductase permet la destruction de l'homocystéine. Cet enzyme utilise comme cofacteur la vitamine B9 et l'administration de ce dernier permet donc la diminution du taux sanguin d'homocystéine. L'homocystéine'enzyme est codé par le gène MTHFR qui possède plusieurs allèles. La présence de certains types d'allèles augmenterait ainsi le taux d'homocystéine et le risque de maladie cardiovasculaire. Il a été proposé que l'homocystéine a pu jouer un rôle important dans l'apparition de la vie sur terre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Homocyst%C3%A9ine</t>
+          <t>Homocystéine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Valeurs normales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Autre classification[réf. nécessaire] :
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Homocyst%C3%A9ine</t>
+          <t>Homocystéine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une substance pro-inflammatoire dont le rôle dans l'athérosclérose a été suspecté en 1969 par McCully. Il n'est cependant pas encore prouvé si la relation entre des niveaux élevés d'homocystéine dans le sérum est causale pour l'athérosclérose ou si une homocystéinémie élevée n'est qu'un indicateur. Quelques formes congénitales d'hyperhomocystéinémie et d'hyperhomocystéinurie sont décrites.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Homocyst%C3%A9ine</t>
+          <t>Homocystéine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Différentes pathologies dans lesquelles une hyperhomocystéinémie a été retrouvée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des taux élevés d'homocystéine dans le sang (hyperhomocystéinémie) ont été associés avec certaines pathologies, cardiaques, neurologiques, rhumatismales ou psychiatriques.
-Même si des taux élevés d'homocystéine ont été détectés chez des sujets atteints d'affections cardiovasculaires, la réduction des niveaux d'homocystéine ne diminuerait pas le risque cardiovasculaire ni la mortalité, d'après la collaboration Cochrane[7].
+Même si des taux élevés d'homocystéine ont été détectés chez des sujets atteints d'affections cardiovasculaires, la réduction des niveaux d'homocystéine ne diminuerait pas le risque cardiovasculaire ni la mortalité, d'après la collaboration Cochrane.
 </t>
         </is>
       </c>
